--- a/document/基本設計/テーブル定義書.xlsx
+++ b/document/基本設計/テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28926"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F5C1BC-AED1-48FC-88C9-7AFFE6CEDD7C}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF73BE1-D6D0-4584-B922-94663A46A113}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="855" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -42,7 +42,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+  <si>
+    <t>作成日</t>
+  </si>
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -147,18 +150,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>山戸</t>
   </si>
   <si>
     <t>テーブル仕様書</t>
@@ -192,14 +184,13 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="1">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミサキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>user_info</t>
   </si>
   <si>
     <t>作成日</t>
@@ -207,22 +198,6 @@
       <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>顧客管理</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>取引先マスタ</t>
-  </si>
-  <si>
-    <t>m_customer</t>
   </si>
   <si>
     <t>修正日</t>
@@ -240,7 +215,6 @@
   </si>
   <si>
     <t>得意先、仕入先情報を管理するマスタテーブル</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
@@ -305,18 +279,10 @@
     <t>特記事項</t>
   </si>
   <si>
-    <t>取引先ID</t>
-    <rPh sb="0" eb="2">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>client_id</t>
-    <phoneticPr fontId="5"/>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>integer</t>
@@ -327,21 +293,130 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>一意な得意先のID
-コードから割り当て</t>
-    <rPh sb="0" eb="2">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>トクイサキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>自動採番（登録順）</t>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>family_name_kana</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>DB登録時にハッシュ化された値</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>性別（0:男　1:女）</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>address_1</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>アカウント権限（0:一般　1:管理者)</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>削除フラグ（0:有効　1:無効）</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>registared_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>形式（yyyy-mm-dd HH:mm:ss）</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
@@ -498,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -867,6 +942,64 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -879,7 +1012,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1026,110 +1159,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1137,15 +1171,132 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1235,154 +1386,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7181850" y="161925"/>
-          <a:ext cx="1508125" cy="174625"/>
-          <a:chOff x="733" y="95"/>
-          <a:chExt cx="180" cy="17"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="733" y="95"/>
-            <a:ext cx="80" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>作成日</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="813" y="95"/>
-            <a:ext cx="100" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>2005/5/15</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,13 +1653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.140625" style="36" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="61" customWidth="1"/>
-    <col min="7" max="32" width="4.140625" style="36" customWidth="1"/>
+    <col min="7" max="29" width="4.140625" style="36" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="36" customWidth="1"/>
+    <col min="31" max="32" width="4.140625" style="36" customWidth="1"/>
     <col min="33" max="36" width="4" style="36" customWidth="1"/>
     <col min="37" max="256" width="9" style="36"/>
     <col min="257" max="288" width="4.140625" style="36" customWidth="1"/>
@@ -2054,11 +2061,15 @@
       <c r="X2" s="43"/>
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
+      <c r="AA2" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="117">
+        <v>45809</v>
+      </c>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="116"/>
       <c r="AF2" s="48"/>
     </row>
     <row r="3" spans="1:176" ht="12.95" customHeight="1">
@@ -2229,25 +2240,25 @@
     <row r="8" spans="1:176" ht="12.95" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="63" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
+      <c r="F8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
@@ -2266,26 +2277,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105" t="s">
+      <c r="B9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -2304,22 +2315,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="113"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
@@ -2530,26 +2541,26 @@
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
+      <c r="H17" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
@@ -2565,24 +2576,24 @@
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
       <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
@@ -2598,24 +2609,24 @@
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
@@ -2726,7 +2737,7 @@
     <row r="23" spans="1:32" ht="12.95" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -2794,19 +2805,19 @@
     <row r="25" spans="1:32" ht="12.95" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54"/>
       <c r="F25" s="52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
       <c r="J25" s="52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
@@ -2827,10 +2838,10 @@
       <c r="AA25" s="53"/>
       <c r="AB25" s="54"/>
       <c r="AC25" s="56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE25" s="43"/>
       <c r="AF25" s="48"/>
@@ -2838,19 +2849,19 @@
     <row r="26" spans="1:32" ht="12.95" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="66">
-        <v>38487</v>
-      </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
+      <c r="F26" s="81">
+        <v>45809</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
@@ -2870,10 +2881,8 @@
       <c r="Z26" s="53"/>
       <c r="AA26" s="53"/>
       <c r="AB26" s="54"/>
-      <c r="AC26" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="54" t="s">
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="119" t="s">
         <v>14</v>
       </c>
       <c r="AE26" s="43"/>
@@ -3458,7 +3467,9 @@
       <c r="AF43" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:Q10"/>
@@ -3472,16 +3483,15 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3504,106 +3514,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73" t="s">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="64" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D2" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77" t="s">
+      <c r="M2" s="35">
+        <v>45809</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="35">
-        <v>44187</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="111"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="8"/>
@@ -3614,84 +3622,86 @@
     </row>
     <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="M6" s="98"/>
+      <c r="N6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="28" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="7" spans="1:16" s="28" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="E7" s="24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="25">
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="26"/>
       <c r="O7" s="22"/>
       <c r="P7" s="27"/>
@@ -3700,18 +3710,30 @@
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="24">
+        <v>100</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="98"/>
+      <c r="K8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="26"/>
       <c r="O8" s="22"/>
       <c r="P8" s="27"/>
@@ -3720,18 +3742,30 @@
       <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="24">
+        <v>100</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="K9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
       <c r="N9" s="26"/>
       <c r="O9" s="22"/>
       <c r="P9" s="27"/>
@@ -3740,18 +3774,30 @@
       <c r="A10" s="30">
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="24">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
+      <c r="K10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="26"/>
       <c r="O10" s="22"/>
       <c r="P10" s="27"/>
@@ -3760,18 +3806,30 @@
       <c r="A11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="24">
+        <v>100</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
+      <c r="K11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
       <c r="N11" s="26"/>
       <c r="O11" s="22"/>
       <c r="P11" s="27"/>
@@ -3780,18 +3838,30 @@
       <c r="A12" s="30">
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="24">
+        <v>255</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
+      <c r="K12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="26"/>
       <c r="O12" s="22"/>
       <c r="P12" s="27"/>
@@ -3800,18 +3870,32 @@
       <c r="A13" s="30">
         <v>7</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="24">
+        <v>255</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="K13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="86"/>
       <c r="N13" s="32"/>
       <c r="O13" s="22"/>
       <c r="P13" s="27"/>
@@ -3820,18 +3904,32 @@
       <c r="A14" s="30">
         <v>8</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="K14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="86"/>
       <c r="N14" s="32"/>
       <c r="O14" s="22"/>
       <c r="P14" s="27"/>
@@ -3840,18 +3938,30 @@
       <c r="A15" s="30">
         <v>9</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="24">
+        <v>7</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="K15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="32"/>
       <c r="O15" s="22"/>
       <c r="P15" s="27"/>
@@ -3860,18 +3970,30 @@
       <c r="A16" s="30">
         <v>10</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="24">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="K16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="32"/>
       <c r="O16" s="22"/>
       <c r="P16" s="27"/>
@@ -3880,18 +4002,30 @@
       <c r="A17" s="30">
         <v>11</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="B17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="24">
+        <v>100</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="K17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="32"/>
       <c r="O17" s="22"/>
       <c r="P17" s="27"/>
@@ -3900,18 +4034,30 @@
       <c r="A18" s="30">
         <v>12</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="24">
+        <v>255</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="K18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="32"/>
       <c r="O18" s="22"/>
       <c r="P18" s="27"/>
@@ -3920,18 +4066,32 @@
       <c r="A19" s="30">
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="B19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="K19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="86"/>
       <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="27"/>
@@ -3940,18 +4100,32 @@
       <c r="A20" s="30">
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="B20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="86"/>
       <c r="N20" s="32"/>
       <c r="O20" s="22"/>
       <c r="P20" s="27"/>
@@ -3960,29 +4134,77 @@
       <c r="A21" s="30">
         <v>15</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="K21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="86"/>
       <c r="N21" s="32"/>
       <c r="O21" s="22"/>
       <c r="P21" s="27"/>
     </row>
+    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A22" s="30">
+        <v>16</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="86"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+      <c r="G23" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+  <mergeCells count="26">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3996,13 +4218,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
